--- a/data/trans_orig/hab_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>155704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136756</v>
+        <v>135446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174977</v>
+        <v>176579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3151487741437852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2767977526163314</v>
+        <v>0.274145802928287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3541585197811701</v>
+        <v>0.3574001546378753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -765,19 +765,19 @@
         <v>151847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132037</v>
+        <v>132279</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172041</v>
+        <v>170844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3248134380619686</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2824379319230667</v>
+        <v>0.2829569968895587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3680116668739034</v>
+        <v>0.3654503481582055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>323</v>
@@ -786,19 +786,19 @@
         <v>307550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>281772</v>
+        <v>280738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>336536</v>
+        <v>338206</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3198475532554052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2930382168442753</v>
+        <v>0.2919634281839786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3499925864497825</v>
+        <v>0.3517284681918895</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>80947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65694</v>
+        <v>65734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98741</v>
+        <v>100482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1638386804351093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1329674891609812</v>
+        <v>0.1330484061294446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1998553906628184</v>
+        <v>0.2033785342132094</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -836,19 +836,19 @@
         <v>71444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57436</v>
+        <v>57519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87674</v>
+        <v>87528</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1528240501713374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1228599883528418</v>
+        <v>0.1230384356987989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1875432452365599</v>
+        <v>0.1872293806802754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>159</v>
@@ -857,19 +857,19 @@
         <v>152390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130632</v>
+        <v>131368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171862</v>
+        <v>174033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1584835728965787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1358549230319725</v>
+        <v>0.1366208034099982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1787340097493125</v>
+        <v>0.1809910649495197</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>149955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129576</v>
+        <v>129345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>171021</v>
+        <v>169456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3035123358839207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2622655816532773</v>
+        <v>0.2617975493888366</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3461510976678512</v>
+        <v>0.3429830996022435</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -907,19 +907,19 @@
         <v>140049</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121669</v>
+        <v>121098</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157590</v>
+        <v>160070</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2995768514318017</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2602606701103501</v>
+        <v>0.2590383150956092</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3370992428067272</v>
+        <v>0.3424041012748857</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>285</v>
@@ -928,19 +928,19 @@
         <v>290003</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>263399</v>
+        <v>261594</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>319142</v>
+        <v>316961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3015989768375776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2739310706515861</v>
+        <v>0.2720540481790654</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3319022536876197</v>
+        <v>0.3296346992600981</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>107459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90259</v>
+        <v>89329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126664</v>
+        <v>125520</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2175002095371849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1826862222564372</v>
+        <v>0.1808042849925491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2563721546784949</v>
+        <v>0.2540554879798485</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -978,19 +978,19 @@
         <v>104150</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87654</v>
+        <v>86563</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121155</v>
+        <v>120648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2227856603348923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1874988777229719</v>
+        <v>0.185165681629759</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2591603351633752</v>
+        <v>0.2580768692002074</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -999,19 +999,19 @@
         <v>211609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187148</v>
+        <v>188100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235225</v>
+        <v>237116</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2200698970104386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1946309001642503</v>
+        <v>0.1956211485842766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2446307514987158</v>
+        <v>0.2465972086773789</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>226938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202934</v>
+        <v>202878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>253203</v>
+        <v>252705</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3085532223000995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2759177326342941</v>
+        <v>0.2758412962601489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3442641580095171</v>
+        <v>0.3435871960595119</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -1124,19 +1124,19 @@
         <v>206885</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>182732</v>
+        <v>184867</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>230036</v>
+        <v>231162</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3307541036639332</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.292140469003346</v>
+        <v>0.2955543800125449</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3677672567717754</v>
+        <v>0.3695676914838462</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>425</v>
@@ -1145,19 +1145,19 @@
         <v>433822</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>399541</v>
+        <v>401215</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>466042</v>
+        <v>468461</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3187565238075172</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2935683446841318</v>
+        <v>0.2947982712760688</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3424303944862305</v>
+        <v>0.344208400116045</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>152635</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129726</v>
+        <v>129813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176486</v>
+        <v>176055</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.207529260401307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1763806508442142</v>
+        <v>0.176498752615329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2399567351735148</v>
+        <v>0.2393716963384548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1195,19 +1195,19 @@
         <v>135647</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116160</v>
+        <v>115623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157575</v>
+        <v>157276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2168635315482212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1857097183886728</v>
+        <v>0.1848507597333569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2519212103452902</v>
+        <v>0.2514422424165538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -1216,19 +1216,19 @@
         <v>288282</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>256949</v>
+        <v>258458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322277</v>
+        <v>320471</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2118191974224158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.18879703280376</v>
+        <v>0.1899056858353409</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2367972593973695</v>
+        <v>0.2354705206754094</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>207191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183618</v>
+        <v>181201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235008</v>
+        <v>234296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2817050858251107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2496548386799872</v>
+        <v>0.2463681741247876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3195263625269774</v>
+        <v>0.3185574907999893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1266,19 +1266,19 @@
         <v>169060</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147530</v>
+        <v>147288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>195068</v>
+        <v>192011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2702825826714614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.235860867242645</v>
+        <v>0.2354750511137483</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3118618154803387</v>
+        <v>0.3069742154998206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -1287,19 +1287,19 @@
         <v>376251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>342862</v>
+        <v>342694</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>413456</v>
+        <v>411157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2764554184026283</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2519227929109846</v>
+        <v>0.2517990214373497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3037922770625082</v>
+        <v>0.3021034669297339</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>148725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>127944</v>
+        <v>126028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>170382</v>
+        <v>170918</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2022124314734828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1739572043029512</v>
+        <v>0.171352943594353</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2316585436052279</v>
+        <v>0.232386803578191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -1337,19 +1337,19 @@
         <v>113902</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96530</v>
+        <v>96979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>134988</v>
+        <v>135857</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1820997821163843</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1543253295231798</v>
+        <v>0.1550439269732793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2158104987544569</v>
+        <v>0.2171995561343484</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>251</v>
@@ -1358,19 +1358,19 @@
         <v>262627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>234001</v>
+        <v>234129</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>294213</v>
+        <v>293023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1929688603674387</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1719350467844244</v>
+        <v>0.1720297549079939</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2161769765980175</v>
+        <v>0.2153027384082425</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>189574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168706</v>
+        <v>167478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211967</v>
+        <v>213102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.296827843121268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2641533569626974</v>
+        <v>0.2622301878900304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3318899083387728</v>
+        <v>0.3336661483827101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -1483,19 +1483,19 @@
         <v>213635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187323</v>
+        <v>190394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>237000</v>
+        <v>238482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3097309238663475</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2715828398570534</v>
+        <v>0.2760352324399752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3436060621695181</v>
+        <v>0.3457542292735027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>398</v>
@@ -1504,19 +1504,19 @@
         <v>403209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369123</v>
+        <v>367100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>439372</v>
+        <v>437495</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3035274415108968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2778675410726603</v>
+        <v>0.2763451050839341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3307497119225349</v>
+        <v>0.3293371238800789</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>127711</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>107395</v>
+        <v>107209</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>149368</v>
+        <v>150176</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1999652657702112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1681545694448603</v>
+        <v>0.1678631551384952</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.23387409387567</v>
+        <v>0.2351396973195238</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>145</v>
@@ -1554,19 +1554,19 @@
         <v>145231</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>123991</v>
+        <v>125923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168941</v>
+        <v>167857</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.210558460332046</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1797643785406392</v>
+        <v>0.1825647399961311</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2449323965342343</v>
+        <v>0.2433606683589821</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>264</v>
@@ -1575,19 +1575,19 @@
         <v>272943</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>246718</v>
+        <v>245827</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>306394</v>
+        <v>302199</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2054655141705444</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1857242705231775</v>
+        <v>0.1850529720499705</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2306471019068788</v>
+        <v>0.2274886308531668</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>187066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162019</v>
+        <v>163858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209870</v>
+        <v>210984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2929009008847582</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2536832352320781</v>
+        <v>0.2565616074788018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3286050532275182</v>
+        <v>0.3303506480377096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>179</v>
@@ -1625,19 +1625,19 @@
         <v>196224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169859</v>
+        <v>173158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221398</v>
+        <v>220594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2844874511339398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2462642763407498</v>
+        <v>0.2510463262167335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3209863407549404</v>
+        <v>0.3198195010067155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>349</v>
@@ -1646,19 +1646,19 @@
         <v>383290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>348328</v>
+        <v>349941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419308</v>
+        <v>416460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2885324298571471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.262213886521247</v>
+        <v>0.2634282926455286</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3156457606052329</v>
+        <v>0.3135020367932221</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>134316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116498</v>
+        <v>115483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156957</v>
+        <v>157168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2103059902237626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1824077947493618</v>
+        <v>0.1808189438998624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2457567638655699</v>
+        <v>0.2460878124273525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -1696,19 +1696,19 @@
         <v>134654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115729</v>
+        <v>113496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156652</v>
+        <v>156216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1952231646676666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.167785800645261</v>
+        <v>0.1645485603340406</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2271160005993454</v>
+        <v>0.2264841341636588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -1717,19 +1717,19 @@
         <v>268970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>238594</v>
+        <v>239056</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>302775</v>
+        <v>299344</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2024746144614117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1796084959772943</v>
+        <v>0.1799563241011852</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2279223330050443</v>
+        <v>0.2253394966833666</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>137860</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118120</v>
+        <v>118592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160352</v>
+        <v>158707</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2655506709624013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2275262163830318</v>
+        <v>0.2284355129952902</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3088762892932511</v>
+        <v>0.3057068054406602</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -1842,19 +1842,19 @@
         <v>145107</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124685</v>
+        <v>126173</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>164616</v>
+        <v>165811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2814110396441661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2418061916231485</v>
+        <v>0.2446918468162828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3192455315684147</v>
+        <v>0.3215620789534762</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>277</v>
@@ -1863,19 +1863,19 @@
         <v>282967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256850</v>
+        <v>255030</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>312429</v>
+        <v>311922</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2734539940651703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2482148610762562</v>
+        <v>0.2464559858023774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3019250896357966</v>
+        <v>0.3014349089301113</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>131029</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110820</v>
+        <v>111136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153914</v>
+        <v>152268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2523937178225872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2134653062982125</v>
+        <v>0.2140738464033708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2964738966372493</v>
+        <v>0.2933042868843347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>117</v>
@@ -1913,19 +1913,19 @@
         <v>115113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>98526</v>
+        <v>96961</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135746</v>
+        <v>134661</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2232428832443287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1910734995928854</v>
+        <v>0.1880396458345711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2632568221090495</v>
+        <v>0.261152970311641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -1934,19 +1934,19 @@
         <v>246143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218492</v>
+        <v>219563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>277395</v>
+        <v>274360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2378676706032541</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2111462340249988</v>
+        <v>0.2121814177281852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2680690601583611</v>
+        <v>0.2651360937993691</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>147552</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>126338</v>
+        <v>127365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169689</v>
+        <v>170478</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2842191208773697</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2433567444188786</v>
+        <v>0.2453350007095302</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3268606430330477</v>
+        <v>0.3283807052748425</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>139</v>
@@ -1984,19 +1984,19 @@
         <v>149335</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>129459</v>
+        <v>130876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>172869</v>
+        <v>171388</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2896101098268608</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2510636367125548</v>
+        <v>0.2538125692547202</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3352492072147798</v>
+        <v>0.3323783311101864</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>272</v>
@@ -2005,19 +2005,19 @@
         <v>296887</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>267942</v>
+        <v>267814</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>328873</v>
+        <v>326363</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.286905485133219</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2589344041807268</v>
+        <v>0.2588100041777036</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3178166236356627</v>
+        <v>0.315391336544945</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>102706</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85673</v>
+        <v>85082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121356</v>
+        <v>120595</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1978364903376418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1650264666817931</v>
+        <v>0.1638884126781969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2337610609275101</v>
+        <v>0.2322936846549065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -2055,19 +2055,19 @@
         <v>106086</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86508</v>
+        <v>88763</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124149</v>
+        <v>124480</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2057359672846443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1677683729918739</v>
+        <v>0.1721412743985408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2407653325497117</v>
+        <v>0.2414076113866385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -2076,19 +2076,19 @@
         <v>208792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182040</v>
+        <v>182693</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234593</v>
+        <v>233672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2017728501983566</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1759197388343071</v>
+        <v>0.1765512277223348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2267061707303546</v>
+        <v>0.2258156759580292</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>94930</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78827</v>
+        <v>79602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110117</v>
+        <v>112231</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2454798971324265</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2038392040065575</v>
+        <v>0.2058434415894921</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2847528540928198</v>
+        <v>0.2902196923525038</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -2201,19 +2201,19 @@
         <v>112361</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>96174</v>
+        <v>95855</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132263</v>
+        <v>132504</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2781303604776765</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2380615620787797</v>
+        <v>0.2372725840863493</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3273943595688873</v>
+        <v>0.3279917182035437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -2222,19 +2222,19 @@
         <v>207290</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184616</v>
+        <v>180477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>233621</v>
+        <v>230423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2621618193408695</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2334857755966813</v>
+        <v>0.2282505568764699</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2954629043060011</v>
+        <v>0.2914174760155955</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>81815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67768</v>
+        <v>66790</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98314</v>
+        <v>98783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2115668702513916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1752415173309242</v>
+        <v>0.1727145233791559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2542326515022249</v>
+        <v>0.2554449648456732</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -2272,19 +2272,19 @@
         <v>80556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65013</v>
+        <v>64951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96802</v>
+        <v>96304</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1994032002023778</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1609286257148612</v>
+        <v>0.1607765998408394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2396170337033077</v>
+        <v>0.238385568637102</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -2293,19 +2293,19 @@
         <v>162371</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>141614</v>
+        <v>140827</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>186204</v>
+        <v>186110</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2053521530089076</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1791002019318111</v>
+        <v>0.178105457110152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2354935109481555</v>
+        <v>0.2353743155086327</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>124148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105701</v>
+        <v>105687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145190</v>
+        <v>142105</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3210365456678082</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2733338939592051</v>
+        <v>0.2732979564424738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3754483569431598</v>
+        <v>0.3674708158168651</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>123</v>
@@ -2343,19 +2343,19 @@
         <v>131046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>115633</v>
+        <v>114030</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>154349</v>
+        <v>150584</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3243821131841357</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2862312689468269</v>
+        <v>0.2822629548430428</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3820658515175639</v>
+        <v>0.3727463397049953</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>242</v>
@@ -2364,19 +2364,19 @@
         <v>255194</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>228551</v>
+        <v>227844</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281214</v>
+        <v>282757</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3227458781345582</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2890508260914055</v>
+        <v>0.2881566418418437</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3556540656564077</v>
+        <v>0.3576045765228243</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>85817</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>70801</v>
+        <v>70742</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101589</v>
+        <v>102460</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2219166869483738</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1830844647947266</v>
+        <v>0.1829322665186298</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2627010702221871</v>
+        <v>0.2649533344741697</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>84</v>
@@ -2414,19 +2414,19 @@
         <v>80023</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>66018</v>
+        <v>65944</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>97403</v>
+        <v>97855</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.19808432613581</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1634172440376526</v>
+        <v>0.1632344956067269</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2411052495309445</v>
+        <v>0.2422226218019691</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>172</v>
@@ -2435,19 +2435,19 @@
         <v>165841</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>145397</v>
+        <v>143594</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>188969</v>
+        <v>187035</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2097401495156647</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1838852943487592</v>
+        <v>0.1816047349181643</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2389909127532628</v>
+        <v>0.2365447119287189</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>84865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68817</v>
+        <v>71656</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99850</v>
+        <v>100170</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2900534471843354</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.235203383860049</v>
+        <v>0.2449074661830851</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3412694003526595</v>
+        <v>0.342364026683889</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>112</v>
@@ -2560,19 +2560,19 @@
         <v>105948</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89655</v>
+        <v>90554</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>121719</v>
+        <v>123679</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3089468942711487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.261434429764654</v>
+        <v>0.264056616785782</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3549348553061877</v>
+        <v>0.3606494484170337</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>208</v>
@@ -2581,19 +2581,19 @@
         <v>190813</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>168725</v>
+        <v>169607</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>210705</v>
+        <v>214201</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.300248619575445</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2654932507639243</v>
+        <v>0.2668801876807136</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3315482988119308</v>
+        <v>0.337049914385226</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>70958</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>57349</v>
+        <v>55310</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86315</v>
+        <v>86519</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.242521473074122</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1960108618818305</v>
+        <v>0.1890418125797032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2950107778742277</v>
+        <v>0.2957065203677908</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>83</v>
@@ -2631,19 +2631,19 @@
         <v>72825</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>59573</v>
+        <v>59367</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>86975</v>
+        <v>87824</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2123577845884856</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1737148057192094</v>
+        <v>0.1731140714968327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2536197257659632</v>
+        <v>0.2560964651864459</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>150</v>
@@ -2652,19 +2652,19 @@
         <v>143782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>121839</v>
+        <v>124993</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>163299</v>
+        <v>166018</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2262447183533051</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.191716491107314</v>
+        <v>0.1966791079798109</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.25695503474109</v>
+        <v>0.2612324290253265</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>74152</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>60779</v>
+        <v>60603</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>88317</v>
+        <v>89937</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2534394114341686</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2077323518383138</v>
+        <v>0.2071297526953902</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.301852529980208</v>
+        <v>0.3073892158144785</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>89</v>
@@ -2702,19 +2702,19 @@
         <v>86267</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>70872</v>
+        <v>71919</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>100566</v>
+        <v>102613</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2515551452616702</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2066649045292738</v>
+        <v>0.2097180259682403</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2932504078049487</v>
+        <v>0.299219502564836</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>165</v>
@@ -2723,19 +2723,19 @@
         <v>160419</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>139912</v>
+        <v>140364</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>181607</v>
+        <v>180688</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2524226346453123</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2201548755970876</v>
+        <v>0.2208664084126515</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2857625734102485</v>
+        <v>0.2843162548811473</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>62609</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48544</v>
+        <v>50491</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76618</v>
+        <v>76610</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.213985668307374</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1659136500592037</v>
+        <v>0.1725706343133934</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2618673986894287</v>
+        <v>0.2618415722458171</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>87</v>
@@ -2773,19 +2773,19 @@
         <v>77894</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64767</v>
+        <v>64257</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92752</v>
+        <v>94341</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2271401758786955</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1888612234159764</v>
+        <v>0.187373638619579</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.270466940768794</v>
+        <v>0.2751009789648742</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>151</v>
@@ -2794,19 +2794,19 @@
         <v>140503</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>121891</v>
+        <v>123754</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>161869</v>
+        <v>162350</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2210840274259376</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1917986785319699</v>
+        <v>0.1947290658850455</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2547038303112037</v>
+        <v>0.2554620460918887</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>52353</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>40446</v>
+        <v>40597</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65163</v>
+        <v>65752</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2494373084166737</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1927089181476098</v>
+        <v>0.1934258198408066</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.31047070356253</v>
+        <v>0.3132782022130308</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -2919,19 +2919,19 @@
         <v>102829</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>84971</v>
+        <v>85914</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>120800</v>
+        <v>122496</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.307955948107111</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2544746983550639</v>
+        <v>0.257299306064355</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.361774977163649</v>
+        <v>0.3668559992538314</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>148</v>
@@ -2940,19 +2940,19 @@
         <v>155182</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>135475</v>
+        <v>135330</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>178822</v>
+        <v>176638</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2853699397482047</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2491311224317082</v>
+        <v>0.2488646157911002</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3288433873426631</v>
+        <v>0.324827305308785</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>33413</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24291</v>
+        <v>23576</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44903</v>
+        <v>45107</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1591996791402816</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1157369789869046</v>
+        <v>0.1123297263919681</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2139444972012772</v>
+        <v>0.2149168328246336</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -2990,19 +2990,19 @@
         <v>63025</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50182</v>
+        <v>49979</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78501</v>
+        <v>79616</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1887496524836685</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1502860327582978</v>
+        <v>0.149679572450708</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2350974579427576</v>
+        <v>0.2384354772797312</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -3011,19 +3011,19 @@
         <v>96438</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>78816</v>
+        <v>80063</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>114390</v>
+        <v>115235</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1773444669142531</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1449382353602415</v>
+        <v>0.1472310358871452</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2103557243333356</v>
+        <v>0.2119101523782929</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>71737</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57770</v>
+        <v>58642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85651</v>
+        <v>85556</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3417938232307564</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2752466071412267</v>
+        <v>0.2794044074326157</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4080909060332723</v>
+        <v>0.4076374070598565</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>81</v>
@@ -3061,19 +3061,19 @@
         <v>96413</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79580</v>
+        <v>79154</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>115306</v>
+        <v>114760</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2887403835982877</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2383291533886658</v>
+        <v>0.2370539144264746</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3453236656667941</v>
+        <v>0.3436863667181297</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>151</v>
@@ -3082,19 +3082,19 @@
         <v>168149</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>145235</v>
+        <v>146731</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>190991</v>
+        <v>192687</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3092170289431979</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.267078252743883</v>
+        <v>0.2698293949367752</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3512205851201152</v>
+        <v>0.3543395310800045</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>52380</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>40430</v>
+        <v>41237</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>65995</v>
+        <v>64885</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2495691892122884</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1926297675463549</v>
+        <v>0.1964766441125838</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3144379912197497</v>
+        <v>0.3091471540550402</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>64</v>
@@ -3132,19 +3132,19 @@
         <v>71641</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>55431</v>
+        <v>56058</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>87218</v>
+        <v>87700</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2145540158109328</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1660081064116038</v>
+        <v>0.1678849184911602</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2612040601919955</v>
+        <v>0.262648329517467</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>119</v>
@@ -3153,19 +3153,19 @@
         <v>124022</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>104471</v>
+        <v>105878</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>143751</v>
+        <v>144252</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2280685643943443</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1921151695699021</v>
+        <v>0.1947029899176955</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2643502179161603</v>
+        <v>0.2652704426372834</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>942222</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>885874</v>
+        <v>887233</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>987389</v>
+        <v>989079</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2875658974032656</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2703683459634703</v>
+        <v>0.2707831966512627</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3013509256032784</v>
+        <v>0.30186675376584</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>997</v>
@@ -3278,19 +3278,19 @@
         <v>1038612</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>989654</v>
+        <v>982411</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1091594</v>
+        <v>1098522</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3073546569657104</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2928665725762669</v>
+        <v>0.2907231500577572</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.323033574098946</v>
+        <v>0.3250837212229648</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1991</v>
@@ -3299,19 +3299,19 @@
         <v>1980834</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1909743</v>
+        <v>1895977</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2061059</v>
+        <v>2050223</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.29761288191955</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2869316223499212</v>
+        <v>0.284863396046194</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3096663632999571</v>
+        <v>0.3080382598254882</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>678509</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>630049</v>
+        <v>630918</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>730446</v>
+        <v>722637</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2070807338487843</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1922907488133419</v>
+        <v>0.1925559683677892</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2229318946068079</v>
+        <v>0.2205486395228667</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>696</v>
@@ -3349,19 +3349,19 @@
         <v>683841</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>646303</v>
+        <v>639504</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>736861</v>
+        <v>732017</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.202367916061642</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1912593707392115</v>
+        <v>0.1892473881224723</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2180578919797312</v>
+        <v>0.2166245259171461</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1337</v>
@@ -3370,19 +3370,19 @@
         <v>1362350</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1295632</v>
+        <v>1298250</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1427909</v>
+        <v>1434535</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2046879811759311</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1946638971076291</v>
+        <v>0.1950571065289538</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2145379257272412</v>
+        <v>0.2155334478869508</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>961800</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>910045</v>
+        <v>909323</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1016662</v>
+        <v>1014723</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2935410826611851</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2777453248861794</v>
+        <v>0.2775252098828879</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3102848084641321</v>
+        <v>0.3096931274546066</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>908</v>
@@ -3420,19 +3420,19 @@
         <v>968393</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>915972</v>
+        <v>912573</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1019525</v>
+        <v>1022787</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2865748989646265</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.271061887848202</v>
+        <v>0.2700561016825821</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3017062234266713</v>
+        <v>0.3026717584804</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1804</v>
@@ -3441,19 +3441,19 @@
         <v>1930193</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1858289</v>
+        <v>1858126</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2000391</v>
+        <v>2014401</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2900042697793032</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2792008482231151</v>
+        <v>0.2791763954832988</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3005511835083325</v>
+        <v>0.3026561929122495</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>694012</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>651483</v>
+        <v>646638</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>743174</v>
+        <v>740322</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.211812286086765</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1988325314456508</v>
+        <v>0.1973538727683969</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2268163884874016</v>
+        <v>0.2259460246064538</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>696</v>
@@ -3491,19 +3491,19 @@
         <v>688351</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>639995</v>
+        <v>645657</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>733292</v>
+        <v>737925</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2037025280080212</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.189392739912056</v>
+        <v>0.1910680775333964</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2170017049630838</v>
+        <v>0.2183728707501943</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1379</v>
@@ -3512,19 +3512,19 @@
         <v>1382363</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1315476</v>
+        <v>1313131</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1443964</v>
+        <v>1453600</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2076948671252157</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1976452739079041</v>
+        <v>0.1972929366567031</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2169501178274978</v>
+        <v>0.2183978731575587</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>122205</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102249</v>
+        <v>103959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139746</v>
+        <v>141074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2690870023355921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2251455904841869</v>
+        <v>0.2289100656800852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3077112465727158</v>
+        <v>0.3106352898554577</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -3880,19 +3880,19 @@
         <v>119642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101957</v>
+        <v>101052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136513</v>
+        <v>138987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.27808874400328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2369819256888817</v>
+        <v>0.2348790432080138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3173027899452463</v>
+        <v>0.3230528565811417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>247</v>
@@ -3901,19 +3901,19 @@
         <v>241847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219849</v>
+        <v>216972</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273922</v>
+        <v>269028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2734661552583748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2485926218611071</v>
+        <v>0.2453389404142672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3097347006822197</v>
+        <v>0.3042005039630173</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>102001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85557</v>
+        <v>84428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123858</v>
+        <v>120479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2245998092414011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1883919657125529</v>
+        <v>0.1859044044686441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2727279967782824</v>
+        <v>0.2652864865767593</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -3951,19 +3951,19 @@
         <v>88633</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73165</v>
+        <v>72509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106036</v>
+        <v>105327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2060128150634216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1700611855247757</v>
+        <v>0.1685362776998716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2464641389409834</v>
+        <v>0.2448152532111548</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -3972,19 +3972,19 @@
         <v>190634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166893</v>
+        <v>164139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215186</v>
+        <v>215255</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2155576379722106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1887122336614141</v>
+        <v>0.1855987918846149</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2433200312821606</v>
+        <v>0.2433978800957534</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>145463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>126430</v>
+        <v>127435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>168480</v>
+        <v>166808</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.320300994523922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2783915263639143</v>
+        <v>0.2806035697839102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.37098169901119</v>
+        <v>0.3673000369991302</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -4022,19 +4022,19 @@
         <v>135599</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116415</v>
+        <v>115936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>153561</v>
+        <v>155398</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3151778210133923</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2705867545956426</v>
+        <v>0.2694743656280347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3569282186361435</v>
+        <v>0.3611981843950508</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -4043,19 +4043,19 @@
         <v>281062</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>253646</v>
+        <v>256124</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>305745</v>
+        <v>308279</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3178086812493598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2868083853654447</v>
+        <v>0.2896097731496162</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3457186260705443</v>
+        <v>0.3485841735608914</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>84477</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68993</v>
+        <v>69221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101027</v>
+        <v>101377</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1860121938990847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1519170974155166</v>
+        <v>0.1524194949852966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2224554204448297</v>
+        <v>0.2232254650638178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -4093,19 +4093,19 @@
         <v>86356</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71476</v>
+        <v>71408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104492</v>
+        <v>103885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2007206199199061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1661333627102512</v>
+        <v>0.1659754998788802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.242875833347709</v>
+        <v>0.2414637111659716</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>169</v>
@@ -4114,19 +4114,19 @@
         <v>170833</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>148295</v>
+        <v>150050</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193902</v>
+        <v>195618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1931675255200549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1676829414566843</v>
+        <v>0.1696675943388708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2192529639333969</v>
+        <v>0.2211934477822841</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>197655</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>175277</v>
+        <v>175357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>222039</v>
+        <v>225390</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2876708497599137</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.255101188816529</v>
+        <v>0.2552177513185539</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.323159534522905</v>
+        <v>0.3280365215604084</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -4239,19 +4239,19 @@
         <v>188725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>166025</v>
+        <v>165547</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>212277</v>
+        <v>212371</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3092557737543475</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2720576780280685</v>
+        <v>0.2712752377652352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3478494370465255</v>
+        <v>0.3480034671052183</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>382</v>
@@ -4260,19 +4260,19 @@
         <v>386380</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>357830</v>
+        <v>353287</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>422252</v>
+        <v>420511</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2978241571067012</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2758175052178611</v>
+        <v>0.2723163120032915</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3254749490804033</v>
+        <v>0.3241327684056257</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>165890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143961</v>
+        <v>144499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190963</v>
+        <v>191767</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2414388692371864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2095238673032211</v>
+        <v>0.210306286222005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2779313747506951</v>
+        <v>0.2791009422135771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -4310,19 +4310,19 @@
         <v>123218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105504</v>
+        <v>105150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145092</v>
+        <v>146515</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2019115420581965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1728853256743746</v>
+        <v>0.1723050134656602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2377562740498131</v>
+        <v>0.2400879417692079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>269</v>
@@ -4331,19 +4331,19 @@
         <v>289107</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>260441</v>
+        <v>257445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322605</v>
+        <v>318900</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2228456556799459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2007496159561149</v>
+        <v>0.1984404810704504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2486661154346584</v>
+        <v>0.2458103344837684</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>189508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166895</v>
+        <v>169308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>213942</v>
+        <v>213688</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2758143430125201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2429018601564044</v>
+        <v>0.2464146461198606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3113753007199796</v>
+        <v>0.3110055743396997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>176</v>
@@ -4381,19 +4381,19 @@
         <v>195712</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172561</v>
+        <v>171166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220406</v>
+        <v>219977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3207055687588896</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.282768190790249</v>
+        <v>0.2804825794585016</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.361170767739584</v>
+        <v>0.3604669673344157</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>356</v>
@@ -4402,19 +4402,19 @@
         <v>385221</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>349020</v>
+        <v>354839</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>418125</v>
+        <v>421812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2969306745916561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.269026755253893</v>
+        <v>0.2735124991142636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3222938518127708</v>
+        <v>0.3251355321485519</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>134034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114734</v>
+        <v>113975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155756</v>
+        <v>156253</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1950759379903798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1669862985673772</v>
+        <v>0.1658811900733998</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2266904267365012</v>
+        <v>0.2274136878981782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -4452,19 +4452,19 @@
         <v>102600</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85053</v>
+        <v>84518</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122745</v>
+        <v>120399</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1681271154285664</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1393728872591785</v>
+        <v>0.1384957281434887</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2011370074571134</v>
+        <v>0.1972922303501945</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>231</v>
@@ -4473,19 +4473,19 @@
         <v>236635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>210094</v>
+        <v>207120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>267401</v>
+        <v>267741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1823995126216968</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1619415140394991</v>
+        <v>0.1596494283078039</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2061148112676228</v>
+        <v>0.2063767394828357</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>165412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144784</v>
+        <v>142403</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190318</v>
+        <v>189067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2425876826036943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2123355407491079</v>
+        <v>0.2088443744934072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2791151492205752</v>
+        <v>0.2772803302968925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -4598,19 +4598,19 @@
         <v>174165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153348</v>
+        <v>152927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199760</v>
+        <v>198633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2450096376627251</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2157245118999522</v>
+        <v>0.2151328348567377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2810159122247518</v>
+        <v>0.2794301393128286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -4619,19 +4619,19 @@
         <v>339576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307867</v>
+        <v>305789</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371557</v>
+        <v>371110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2438238646217111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2210555969664188</v>
+        <v>0.2195638191333114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2667866973186652</v>
+        <v>0.2664660602736342</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>152068</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>130966</v>
+        <v>130359</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174747</v>
+        <v>177195</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2230179239622171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1920710282609395</v>
+        <v>0.1911802563388725</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.256278523075914</v>
+        <v>0.2598688213931954</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>169</v>
@@ -4669,19 +4669,19 @@
         <v>181098</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>157601</v>
+        <v>157113</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>204945</v>
+        <v>206767</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2547629763493423</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2217072288550233</v>
+        <v>0.2210213489389917</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2883098538274803</v>
+        <v>0.2908724493877019</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>312</v>
@@ -4690,19 +4690,19 @@
         <v>333166</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>302931</v>
+        <v>299852</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>366014</v>
+        <v>369047</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2392208104590743</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2175118457386426</v>
+        <v>0.2153005579933993</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2628069171332636</v>
+        <v>0.2649845406203036</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>232148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>207588</v>
+        <v>204768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>256624</v>
+        <v>256833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3404606506033118</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3044427227791406</v>
+        <v>0.3003059467296409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.376357014692267</v>
+        <v>0.3766640349774952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -4740,19 +4740,19 @@
         <v>216054</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191297</v>
+        <v>192499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242952</v>
+        <v>245137</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3039368807608145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.269110110978306</v>
+        <v>0.2708012941939923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3417768985166909</v>
+        <v>0.344849850779826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -4761,19 +4761,19 @@
         <v>448201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411806</v>
+        <v>412548</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>487080</v>
+        <v>486495</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3218186748403318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2956866607292906</v>
+        <v>0.2962192737830656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3497348100317538</v>
+        <v>0.3493151051140456</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>132236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110829</v>
+        <v>110935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153497</v>
+        <v>153463</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1939337428307767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1625391620387852</v>
+        <v>0.1626945878155105</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.225114862809204</v>
+        <v>0.225064764778902</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -4811,19 +4811,19 @@
         <v>139533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119469</v>
+        <v>117544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162772</v>
+        <v>162141</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1962905052271181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1680644987228253</v>
+        <v>0.1653563173441912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2289825744498833</v>
+        <v>0.2280948704878492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>256</v>
@@ -4832,19 +4832,19 @@
         <v>271769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243077</v>
+        <v>244615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>305699</v>
+        <v>306766</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1951366500788828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1745351662839519</v>
+        <v>0.1756392784532539</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2194988036016442</v>
+        <v>0.2202651476238769</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>171596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148216</v>
+        <v>147023</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>195974</v>
+        <v>195469</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2791922863162184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.241152471837328</v>
+        <v>0.2392113039131061</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3188553557128749</v>
+        <v>0.3180343808071775</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>167</v>
@@ -4957,19 +4957,19 @@
         <v>185142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162436</v>
+        <v>164131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>210646</v>
+        <v>209774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3004579235832592</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2636093856200428</v>
+        <v>0.26636060261762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3418465571738868</v>
+        <v>0.3404323343631886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>321</v>
@@ -4978,19 +4978,19 @@
         <v>356738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>326891</v>
+        <v>325130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>393598</v>
+        <v>394810</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2898387752280983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2655888127398394</v>
+        <v>0.2641582780574573</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3197864288451945</v>
+        <v>0.320771018298633</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>140049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119283</v>
+        <v>118679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166313</v>
+        <v>163966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2278642838557159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1940768837400613</v>
+        <v>0.1930943331917592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2705963385050464</v>
+        <v>0.2667767513168506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>116</v>
@@ -5028,19 +5028,19 @@
         <v>141692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118963</v>
+        <v>117514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164824</v>
+        <v>165795</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2299459557881933</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1930593787302301</v>
+        <v>0.1907086238438434</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2674846572242497</v>
+        <v>0.2690602188814177</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -5049,19 +5049,19 @@
         <v>281742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>249732</v>
+        <v>251584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>315582</v>
+        <v>315872</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2289064579918111</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2028993000699919</v>
+        <v>0.2044044794542264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2564009018344396</v>
+        <v>0.2566360846803896</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>175796</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>153036</v>
+        <v>154868</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>201914</v>
+        <v>204920</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2860245446385331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2489944542585217</v>
+        <v>0.251974608248268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.328520615208215</v>
+        <v>0.3334101966784461</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>155</v>
@@ -5099,19 +5099,19 @@
         <v>176393</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153206</v>
+        <v>153030</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>199457</v>
+        <v>200003</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2862602470981273</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2486301177179026</v>
+        <v>0.2483451299967565</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3236898519083184</v>
+        <v>0.3245752419083995</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>310</v>
@@ -5120,19 +5120,19 @@
         <v>352189</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>319741</v>
+        <v>320845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>386414</v>
+        <v>389720</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.286142547385926</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2597794792518234</v>
+        <v>0.2606763901455529</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3139493432919676</v>
+        <v>0.3166357102166026</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>127176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108290</v>
+        <v>108296</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150034</v>
+        <v>152176</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2069188851895327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1761917134264782</v>
+        <v>0.1762009612418372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2441096499212438</v>
+        <v>0.2475940885216846</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -5170,19 +5170,19 @@
         <v>112971</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94240</v>
+        <v>95307</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133426</v>
+        <v>135633</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1833358735304202</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1529373689047252</v>
+        <v>0.1546691081637216</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2165312786835037</v>
+        <v>0.2201121684795573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -5191,19 +5191,19 @@
         <v>240147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>214344</v>
+        <v>211654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270624</v>
+        <v>268931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1951122193941647</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1741479502818958</v>
+        <v>0.1719626078635031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2198733973603863</v>
+        <v>0.2184983520740788</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>129258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110893</v>
+        <v>110452</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149929</v>
+        <v>150849</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3010007846987618</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2582346342474495</v>
+        <v>0.257207553463511</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3491356881417902</v>
+        <v>0.3512784603143299</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -5316,19 +5316,19 @@
         <v>140477</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>120909</v>
+        <v>121377</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>161682</v>
+        <v>159529</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3137054548419735</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2700062954619477</v>
+        <v>0.2710514042085267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3610576287510656</v>
+        <v>0.3562514734107793</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>251</v>
@@ -5337,19 +5337,19 @@
         <v>269736</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>240091</v>
+        <v>239769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>300421</v>
+        <v>296199</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3074861496978488</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.273692674818991</v>
+        <v>0.2733252891125951</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3424657974001838</v>
+        <v>0.337653130982174</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>94018</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>76243</v>
+        <v>76601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113028</v>
+        <v>112425</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2189365048942162</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1775450070555777</v>
+        <v>0.1783794489136097</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2632051967555784</v>
+        <v>0.2618002138587406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -5387,19 +5387,19 @@
         <v>101514</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85067</v>
+        <v>84825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>123417</v>
+        <v>121380</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2266956443938715</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1899667540843479</v>
+        <v>0.1894270239310865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2756077772745364</v>
+        <v>0.2710591832060721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -5408,19 +5408,19 @@
         <v>195532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>171143</v>
+        <v>171489</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223355</v>
+        <v>222707</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2228973201823632</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1950946711496127</v>
+        <v>0.1954889238188472</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2546147232080576</v>
+        <v>0.2538758159144757</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>120154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99746</v>
+        <v>99614</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140056</v>
+        <v>141548</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2797997159838473</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2322750959166109</v>
+        <v>0.231967611934303</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3261442600581232</v>
+        <v>0.329619808787138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -5458,19 +5458,19 @@
         <v>117006</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98484</v>
+        <v>99669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136608</v>
+        <v>136572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2612906469531834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2199281876634246</v>
+        <v>0.2225758592706137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3050643859300323</v>
+        <v>0.3049849492485898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>212</v>
@@ -5479,19 +5479,19 @@
         <v>237160</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>208356</v>
+        <v>208270</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>264602</v>
+        <v>264647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.270351373988027</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2375159339769934</v>
+        <v>0.2374174938044882</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3016333848057774</v>
+        <v>0.3016856232536693</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>85999</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69158</v>
+        <v>70116</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101929</v>
+        <v>103244</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2002629944231747</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1610457215630547</v>
+        <v>0.1632765517211227</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2373596922879994</v>
+        <v>0.2404214893386301</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>81</v>
@@ -5529,19 +5529,19 @@
         <v>88802</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>72155</v>
+        <v>72451</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107505</v>
+        <v>106951</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1983082538109716</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1611313538327579</v>
+        <v>0.1617938908196069</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2400744842512768</v>
+        <v>0.2388364097772048</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>163</v>
@@ -5550,19 +5550,19 @@
         <v>174801</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>150088</v>
+        <v>151342</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>199129</v>
+        <v>199524</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1992651561317611</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1710931849270235</v>
+        <v>0.1725225163224875</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2269978838457367</v>
+        <v>0.2274477126731471</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>86092</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>71273</v>
+        <v>69654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104022</v>
+        <v>102347</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2779094376640411</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.230071040962124</v>
+        <v>0.2248463512027417</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3357868191798915</v>
+        <v>0.3303794523441504</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -5675,19 +5675,19 @@
         <v>112340</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>96335</v>
+        <v>95423</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>129455</v>
+        <v>130311</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3173481216067972</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2721352652584275</v>
+        <v>0.2695600610543701</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3656970946944323</v>
+        <v>0.3681147945814007</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>192</v>
@@ -5696,19 +5696,19 @@
         <v>198432</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>175700</v>
+        <v>177474</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>221646</v>
+        <v>223348</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2989421449785811</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2646946541216105</v>
+        <v>0.2673683765093742</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3339135188824854</v>
+        <v>0.3364777700374771</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>61327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46110</v>
+        <v>47714</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78036</v>
+        <v>79876</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1979656902508254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1488438604458854</v>
+        <v>0.1540231338654964</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.251903385470368</v>
+        <v>0.2578437886309681</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>68</v>
@@ -5746,19 +5746,19 @@
         <v>71498</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>57982</v>
+        <v>57944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>88511</v>
+        <v>86612</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2019739369125132</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1637927214529476</v>
+        <v>0.163684540099607</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2500348654584998</v>
+        <v>0.2446691460984254</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>122</v>
@@ -5767,19 +5767,19 @@
         <v>132825</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>112192</v>
+        <v>113564</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>156495</v>
+        <v>156322</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.200103294005609</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1690192375864989</v>
+        <v>0.1710864394908544</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2357621556237401</v>
+        <v>0.2355014440116308</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>88711</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>73026</v>
+        <v>74465</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>106460</v>
+        <v>107009</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2863617942987742</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2357310866607283</v>
+        <v>0.2403760782707409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3436577234774597</v>
+        <v>0.345427720798552</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>93</v>
@@ -5817,19 +5817,19 @@
         <v>96588</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>80613</v>
+        <v>79692</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>111981</v>
+        <v>113524</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2728501273811271</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2277218388767173</v>
+        <v>0.2251197948411223</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3163347101066995</v>
+        <v>0.3206923828642397</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>173</v>
@@ -5838,19 +5838,19 @@
         <v>185299</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>160135</v>
+        <v>160904</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>208587</v>
+        <v>209150</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2791560027459193</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2412467522489465</v>
+        <v>0.2424055055480877</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3142403736089124</v>
+        <v>0.3150881759727233</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>73656</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58771</v>
+        <v>59113</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>90664</v>
+        <v>90954</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2377630777863593</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1897149637818673</v>
+        <v>0.1908184078153837</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2926656476057713</v>
+        <v>0.2936016762443404</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -5888,19 +5888,19 @@
         <v>73570</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>59226</v>
+        <v>58887</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87877</v>
+        <v>89398</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2078278140995625</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1673075324751201</v>
+        <v>0.1663498727331533</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2482428494909648</v>
+        <v>0.2525404817617362</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>139</v>
@@ -5909,19 +5909,19 @@
         <v>147226</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>126215</v>
+        <v>124030</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171049</v>
+        <v>171264</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2217985582698905</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1901455269049578</v>
+        <v>0.186853972527571</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2576884669698302</v>
+        <v>0.2580128796288605</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>75521</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59561</v>
+        <v>61050</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>92024</v>
+        <v>92702</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3022638618787026</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2383867454419335</v>
+        <v>0.2443440029519985</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3683157810770152</v>
+        <v>0.3710308667670459</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>120</v>
@@ -6034,19 +6034,19 @@
         <v>131410</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>113311</v>
+        <v>112627</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>149160</v>
+        <v>151155</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3378324775885069</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2913046106641702</v>
+        <v>0.2895459652643518</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3834643520798894</v>
+        <v>0.3885930293630588</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>186</v>
@@ -6055,19 +6055,19 @@
         <v>206931</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>182773</v>
+        <v>184574</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>234378</v>
+        <v>232656</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3239213415076572</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2861065128385495</v>
+        <v>0.288925232296754</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3668865135805365</v>
+        <v>0.3641904687095693</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>42271</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31218</v>
+        <v>30745</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57072</v>
+        <v>56235</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1691852881768931</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1249476267441815</v>
+        <v>0.1230527245799551</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.228422821938993</v>
+        <v>0.2250721488111128</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -6105,19 +6105,19 @@
         <v>69521</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>53346</v>
+        <v>53449</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>85853</v>
+        <v>85623</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1787257986632377</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1371435722384303</v>
+        <v>0.1374081222611566</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.220713698936144</v>
+        <v>0.2201223933701852</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>97</v>
@@ -6126,19 +6126,19 @@
         <v>111792</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>92022</v>
+        <v>92487</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>131760</v>
+        <v>132675</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1749944378270686</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1440482329902062</v>
+        <v>0.144775865127452</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2062524184695159</v>
+        <v>0.2076841623986984</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>66167</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>51520</v>
+        <v>51812</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>82416</v>
+        <v>81401</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2648269774001397</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2062043454779853</v>
+        <v>0.2073730286184903</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3298617081058285</v>
+        <v>0.3257969379498123</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>84</v>
@@ -6176,19 +6176,19 @@
         <v>94832</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>78772</v>
+        <v>79198</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114084</v>
+        <v>112690</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2437978812566782</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2025087203452027</v>
+        <v>0.2036048194902602</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2932911921044923</v>
+        <v>0.2897065743547886</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>142</v>
@@ -6197,19 +6197,19 @@
         <v>161000</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>139751</v>
+        <v>138740</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>183864</v>
+        <v>183647</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2520225088467907</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2187608883631742</v>
+        <v>0.2171788406572012</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2878130876945333</v>
+        <v>0.2874735804851789</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>65892</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>51987</v>
+        <v>51986</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>79868</v>
+        <v>81791</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2637238725442646</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2080716013381471</v>
+        <v>0.2080686583436406</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3196614624686218</v>
+        <v>0.3273576932700665</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>85</v>
@@ -6247,19 +6247,19 @@
         <v>93216</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>76785</v>
+        <v>76036</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>112680</v>
+        <v>110264</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2396438424915771</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1974005678632174</v>
+        <v>0.1954766070634427</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2896816612017202</v>
+        <v>0.2834700765068873</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>147</v>
@@ -6268,19 +6268,19 @@
         <v>159108</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136295</v>
+        <v>138429</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>180858</v>
+        <v>181306</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2490617118184835</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2133506517987598</v>
+        <v>0.2166907976068014</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2831075400412788</v>
+        <v>0.2838099601204238</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>947739</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>895167</v>
+        <v>890971</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1000296</v>
+        <v>1004127</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2765685898087414</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2612268920514385</v>
+        <v>0.2600024996048106</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2919056175919885</v>
+        <v>0.2930236874071753</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1003</v>
@@ -6393,19 +6393,19 @@
         <v>1051901</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>998623</v>
+        <v>999462</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1112965</v>
+        <v>1110854</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2956182304137982</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2806454099774012</v>
+        <v>0.2808810436696618</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3127791417736436</v>
+        <v>0.3121858175650024</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1913</v>
@@ -6414,19 +6414,19 @@
         <v>1999640</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1927974</v>
+        <v>1924470</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2085550</v>
+        <v>2082268</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2862727638714805</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2760128619789149</v>
+        <v>0.2755111831712799</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2985718072943925</v>
+        <v>0.298101883862235</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>757623</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>708374</v>
+        <v>709988</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>805243</v>
+        <v>805513</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2210890592453012</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2067171687994415</v>
+        <v>0.2071882819694474</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2349853730155963</v>
+        <v>0.2350641041063159</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>705</v>
@@ -6464,19 +6464,19 @@
         <v>777174</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>727854</v>
+        <v>722991</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>831951</v>
+        <v>826088</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2184110449855174</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2045504240050612</v>
+        <v>0.2031839115355821</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2338050830709474</v>
+        <v>0.2321574200147043</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1394</v>
@@ -6485,19 +6485,19 @@
         <v>1534797</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1456458</v>
+        <v>1464090</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1603525</v>
+        <v>1607769</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2197248384151958</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2085096421963147</v>
+        <v>0.2096022421649207</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.229564046141469</v>
+        <v>0.2301716733417742</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>1017947</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>964833</v>
+        <v>956448</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1075889</v>
+        <v>1069980</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2970565651903703</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2815567842413962</v>
+        <v>0.2791099545837697</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3139651795813106</v>
+        <v>0.3122408791022641</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>940</v>
@@ -6535,19 +6535,19 @@
         <v>1032184</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>971614</v>
+        <v>976949</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1083572</v>
+        <v>1087267</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2900771150312048</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2730548500488851</v>
+        <v>0.2745541497072124</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.304518713523454</v>
+        <v>0.3055570949853988</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1876</v>
@@ -6556,19 +6556,19 @@
         <v>2050131</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1978020</v>
+        <v>1969089</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2128764</v>
+        <v>2124545</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2935011280768336</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2831775567397444</v>
+        <v>0.2818989459291504</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3047583409954296</v>
+        <v>0.3041544207561965</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>703469</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>654503</v>
+        <v>656712</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>748782</v>
+        <v>750918</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.205285785755587</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1909966108921087</v>
+        <v>0.1916411259960884</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2185089777429371</v>
+        <v>0.2191322725240171</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>650</v>
@@ -6606,19 +6606,19 @@
         <v>697050</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>651835</v>
+        <v>646647</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>747837</v>
+        <v>743451</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1958936095694797</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1831867717365983</v>
+        <v>0.1817287516895451</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2101664254391963</v>
+        <v>0.2089338892195386</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1324</v>
@@ -6627,19 +6627,19 @@
         <v>1400519</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1329267</v>
+        <v>1333201</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1469273</v>
+        <v>1469388</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.20050126963649</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1903006508454645</v>
+        <v>0.1908638286561362</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2103442482660712</v>
+        <v>0.210360702392381</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>104659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87338</v>
+        <v>88225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123335</v>
+        <v>121193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2495067476520586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2082149052453275</v>
+        <v>0.2103291644247909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2940314455754137</v>
+        <v>0.2889236907475666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -6995,19 +6995,19 @@
         <v>113621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97710</v>
+        <v>96496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132509</v>
+        <v>131212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2870993436121801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2468950660649044</v>
+        <v>0.2438279498615288</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3348253999341974</v>
+        <v>0.3315482478357427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -7016,19 +7016,19 @@
         <v>218280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>193826</v>
+        <v>195046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245191</v>
+        <v>243898</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.267756415714678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2377601732596345</v>
+        <v>0.2392558351544108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3007670410267048</v>
+        <v>0.2991818181202394</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>98695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83283</v>
+        <v>81199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118742</v>
+        <v>117927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2352877407743523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1985464244192675</v>
+        <v>0.1935791206129877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2830817269363099</v>
+        <v>0.2811385531158715</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -7066,19 +7066,19 @@
         <v>84119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67418</v>
+        <v>69461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99789</v>
+        <v>100387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2125539420622235</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1703534899065042</v>
+        <v>0.1755143152870394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2521478529173397</v>
+        <v>0.2536586680742397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -7087,19 +7087,19 @@
         <v>182814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157390</v>
+        <v>161773</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>206807</v>
+        <v>208023</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2242514111540498</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.193065317971246</v>
+        <v>0.1984415681105258</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2536830144101271</v>
+        <v>0.2551742847245339</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>129849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107964</v>
+        <v>111869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>149256</v>
+        <v>149632</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3095608701880738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2573873606750181</v>
+        <v>0.266695422485032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3558273887478199</v>
+        <v>0.3567218128127084</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -7137,19 +7137,19 @@
         <v>119944</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101668</v>
+        <v>103076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137010</v>
+        <v>139658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.303077242618903</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2568960650601311</v>
+        <v>0.2604543047134609</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3461986408396393</v>
+        <v>0.3528909614081515</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>240</v>
@@ -7158,19 +7158,19 @@
         <v>249794</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>222386</v>
+        <v>222003</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>276657</v>
+        <v>275072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3064133341385673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2727937576530841</v>
+        <v>0.2723230486290241</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3393661040833602</v>
+        <v>0.3374210031829724</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>86260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70665</v>
+        <v>70510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103770</v>
+        <v>103667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2056446413855152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.168465427769112</v>
+        <v>0.1680956605906903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.247386631659139</v>
+        <v>0.2471419335706217</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -7208,19 +7208,19 @@
         <v>78070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63581</v>
+        <v>64088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96238</v>
+        <v>96453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1972694717066934</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.16065865943264</v>
+        <v>0.1619373287734087</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.24317534428395</v>
+        <v>0.2437192460330129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -7229,19 +7229,19 @@
         <v>164331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141571</v>
+        <v>140295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>187263</v>
+        <v>188003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2015788389927049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1736605595103614</v>
+        <v>0.1720944643111084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2297087648824686</v>
+        <v>0.2306168398559989</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>160232</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>141336</v>
+        <v>138242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>181689</v>
+        <v>183491</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.271351509634912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.23935121140198</v>
+        <v>0.2341113701100087</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3076880286422801</v>
+        <v>0.3107400881304273</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>156</v>
@@ -7354,19 +7354,19 @@
         <v>156756</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>136592</v>
+        <v>134608</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>177757</v>
+        <v>178420</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2781603115172722</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2423811317587377</v>
+        <v>0.2388593080746762</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3154263137554426</v>
+        <v>0.316602690143222</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>317</v>
@@ -7375,19 +7375,19 @@
         <v>316988</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>288895</v>
+        <v>286209</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>346595</v>
+        <v>346915</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2746764008647413</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2503339181760643</v>
+        <v>0.2480057299679525</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3003318837312456</v>
+        <v>0.3006093236101073</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>144284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123608</v>
+        <v>124900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168475</v>
+        <v>166234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2443434680890407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.209328307015648</v>
+        <v>0.2115164073636024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2853114933741546</v>
+        <v>0.2815159500034644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -7425,19 +7425,19 @@
         <v>146526</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127846</v>
+        <v>127488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167519</v>
+        <v>166547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2600086946857946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2268610491158967</v>
+        <v>0.2262247442944257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2972605912095493</v>
+        <v>0.295535628625281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -7446,19 +7446,19 @@
         <v>290810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>261700</v>
+        <v>262095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320294</v>
+        <v>322668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2519931508709373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2267682416021603</v>
+        <v>0.2271107704402538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2775418174449606</v>
+        <v>0.2795985155309907</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>176655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154208</v>
+        <v>153149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199515</v>
+        <v>197796</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2991634717759877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2611497147217139</v>
+        <v>0.2593569852613714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3378768936750555</v>
+        <v>0.3349663006676647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>174</v>
@@ -7496,19 +7496,19 @@
         <v>168271</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149116</v>
+        <v>146718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191035</v>
+        <v>187266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2985935006967975</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2646042535088282</v>
+        <v>0.2603480851553946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3389886007605866</v>
+        <v>0.3323006985365666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -7517,19 +7517,19 @@
         <v>344925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315286</v>
+        <v>311649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377206</v>
+        <v>375884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2988851420675899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2732017453478723</v>
+        <v>0.2700500284897047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.326857314542419</v>
+        <v>0.325711532396757</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>109325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90958</v>
+        <v>91923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129069</v>
+        <v>128729</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1851415505000596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1540360763100558</v>
+        <v>0.1556704759999677</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2185765333090754</v>
+        <v>0.2180020363650121</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>100</v>
@@ -7567,19 +7567,19 @@
         <v>91992</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76856</v>
+        <v>76416</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>110658</v>
+        <v>109070</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1632374931001357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1363798682220581</v>
+        <v>0.135598483082264</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1963605455795793</v>
+        <v>0.1935423533592013</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>206</v>
@@ -7588,19 +7588,19 @@
         <v>201317</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>176843</v>
+        <v>175014</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227753</v>
+        <v>225153</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1744453061967316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1532385842144613</v>
+        <v>0.1516534010816901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1973525256414976</v>
+        <v>0.195100170344001</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>177297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153170</v>
+        <v>156048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198828</v>
+        <v>201080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2649799077660761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2289208749922789</v>
+        <v>0.2332216610386788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2971592027116164</v>
+        <v>0.3005239341696718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>188</v>
@@ -7713,19 +7713,19 @@
         <v>187378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165832</v>
+        <v>164294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>208573</v>
+        <v>210543</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2833106304018381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2507335876996187</v>
+        <v>0.2484087237291244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3153573889994058</v>
+        <v>0.3183355779007314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>367</v>
@@ -7734,19 +7734,19 @@
         <v>364675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>333912</v>
+        <v>331995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>398582</v>
+        <v>396682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2740921540085374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2509708009599481</v>
+        <v>0.2495299523890656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2995767341194367</v>
+        <v>0.2981492230017317</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>155533</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>133968</v>
+        <v>132287</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>178300</v>
+        <v>175882</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2324520527008272</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2002225528948016</v>
+        <v>0.1977091593898041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2664786251783614</v>
+        <v>0.2628640869433077</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>161</v>
@@ -7784,19 +7784,19 @@
         <v>161032</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>139074</v>
+        <v>140596</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>183611</v>
+        <v>184040</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2434765388350884</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.210276633190887</v>
+        <v>0.2125782115197374</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2776158437103079</v>
+        <v>0.2782646723791976</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>307</v>
@@ -7805,19 +7805,19 @@
         <v>316565</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>286136</v>
+        <v>288482</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>348571</v>
+        <v>347540</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2379323512328666</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2150620302888393</v>
+        <v>0.2168253438615675</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2619879662763531</v>
+        <v>0.2612130615471553</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>218339</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>194694</v>
+        <v>193936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>241730</v>
+        <v>244082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3263183232610158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2909805543855051</v>
+        <v>0.2898480183549199</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3612777408694854</v>
+        <v>0.3647934221343185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>196</v>
@@ -7855,19 +7855,19 @@
         <v>198558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176961</v>
+        <v>176375</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222023</v>
+        <v>223744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3002153059090296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2675614110547663</v>
+        <v>0.266674781640559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.335694094164645</v>
+        <v>0.3382957543715362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>398</v>
@@ -7876,19 +7876,19 @@
         <v>416897</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>383845</v>
+        <v>384136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>450930</v>
+        <v>452885</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3133424506503805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2885002531990845</v>
+        <v>0.2887193959567407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3389220252943622</v>
+        <v>0.340391435842109</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>117928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98775</v>
+        <v>98125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137999</v>
+        <v>137840</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1762497162720809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1476246514542555</v>
+        <v>0.1466530008307379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2062471148202784</v>
+        <v>0.2060095948535101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -7926,19 +7926,19 @@
         <v>114418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97459</v>
+        <v>95395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133771</v>
+        <v>134220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.172997524854044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1473549939438779</v>
+        <v>0.1442356548084478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2022579681953613</v>
+        <v>0.2029372496820487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -7947,19 +7947,19 @@
         <v>232346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206945</v>
+        <v>205362</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262330</v>
+        <v>260622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1746330441082156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1555409281437357</v>
+        <v>0.1543513646610695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1971690731789584</v>
+        <v>0.1958854964359433</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>176924</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154434</v>
+        <v>152703</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>202704</v>
+        <v>199463</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2738563050559407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2390439725060479</v>
+        <v>0.2363650732500401</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3137605529416376</v>
+        <v>0.3087432788991994</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>174</v>
@@ -8072,19 +8072,19 @@
         <v>189913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>166439</v>
+        <v>166520</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215099</v>
+        <v>216606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2925894253615084</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2564235382538975</v>
+        <v>0.2565489450921764</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3313920340251957</v>
+        <v>0.3337132113347955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>341</v>
@@ -8093,19 +8093,19 @@
         <v>366837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>333328</v>
+        <v>336869</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>401582</v>
+        <v>405611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2832447688407398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2573711342013353</v>
+        <v>0.2601054694609713</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3100720043553223</v>
+        <v>0.3131829953573181</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>141822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120517</v>
+        <v>120263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165680</v>
+        <v>164342</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2195216605756474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1865442237698994</v>
+        <v>0.1861524374142914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.256451434997889</v>
+        <v>0.2543798186846845</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -8143,19 +8143,19 @@
         <v>148078</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128347</v>
+        <v>126002</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>171239</v>
+        <v>171752</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2281364450517443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1977373882228001</v>
+        <v>0.1941245235610647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2638191184723183</v>
+        <v>0.2646103405018791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -8164,19 +8164,19 @@
         <v>289900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>257627</v>
+        <v>259638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>321248</v>
+        <v>326411</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2238391256187586</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1989203077463535</v>
+        <v>0.2004729864136197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2480438148158348</v>
+        <v>0.2520304852462406</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>194868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>170910</v>
+        <v>170033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>218482</v>
+        <v>219356</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3016306202021724</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2645466607142072</v>
+        <v>0.2631887672083162</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3381828873255924</v>
+        <v>0.3395349668177016</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>173</v>
@@ -8214,19 +8214,19 @@
         <v>186527</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>166118</v>
+        <v>164812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>209725</v>
+        <v>208689</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2873721555648151</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2559300338857767</v>
+        <v>0.2539180292518423</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3231120410760207</v>
+        <v>0.3215172487105846</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>344</v>
@@ -8235,19 +8235,19 @@
         <v>381395</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>348071</v>
+        <v>344816</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>418721</v>
+        <v>413138</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2944847162261604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2687549860071852</v>
+        <v>0.266241137845724</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3233052148888151</v>
+        <v>0.3189946318076703</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>132434</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110603</v>
+        <v>111014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153711</v>
+        <v>153810</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2049914141662396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1711999363220614</v>
+        <v>0.1718362472690127</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2379245173972927</v>
+        <v>0.238078677688359</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -8285,19 +8285,19 @@
         <v>124559</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106153</v>
+        <v>105722</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145282</v>
+        <v>149594</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1919019740219321</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1635441994332699</v>
+        <v>0.1628808328305886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2238286600216948</v>
+        <v>0.2304725700070327</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>240</v>
@@ -8306,19 +8306,19 @@
         <v>256993</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>227659</v>
+        <v>225922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286796</v>
+        <v>285197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1984313893143412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1757813453350487</v>
+        <v>0.1744403429653453</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2214431023518023</v>
+        <v>0.2202077603760769</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>143836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>125554</v>
+        <v>124269</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>167027</v>
+        <v>166500</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3009641499465499</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.262709755895352</v>
+        <v>0.2600215852881169</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3494894694538261</v>
+        <v>0.348386179228365</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -8431,19 +8431,19 @@
         <v>153330</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>131301</v>
+        <v>134235</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175837</v>
+        <v>176127</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3086057520345799</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2642664090768079</v>
+        <v>0.2701720622081309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3539039997536568</v>
+        <v>0.354487185264212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>262</v>
@@ -8452,19 +8452,19 @@
         <v>297167</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>267087</v>
+        <v>267775</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>327690</v>
+        <v>326540</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3048591549754276</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2740003759647412</v>
+        <v>0.2747071109941253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3361731112313299</v>
+        <v>0.3349933326526179</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>104184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85743</v>
+        <v>86576</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124857</v>
+        <v>125915</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2179965023314482</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1794089306963136</v>
+        <v>0.1811515271650534</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2612513083222184</v>
+        <v>0.2634647600829691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -8502,19 +8502,19 @@
         <v>102659</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83511</v>
+        <v>85440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122887</v>
+        <v>122653</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2066208162797021</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1680806302669397</v>
+        <v>0.1719641811607228</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2473336960740836</v>
+        <v>0.246861767459177</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>178</v>
@@ -8523,19 +8523,19 @@
         <v>206844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182971</v>
+        <v>182226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>236717</v>
+        <v>236798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2121981953968472</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.187707601771518</v>
+        <v>0.1869430342772425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2428447536426707</v>
+        <v>0.2429282951365489</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>137779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117671</v>
+        <v>117308</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158512</v>
+        <v>157412</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2882910356752361</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2462165183172218</v>
+        <v>0.2454558303650935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3316720462357119</v>
+        <v>0.3293698786572991</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>130</v>
@@ -8573,19 +8573,19 @@
         <v>150450</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128246</v>
+        <v>129300</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171456</v>
+        <v>173123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3028085943438978</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.258119012806101</v>
+        <v>0.2602393459782405</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3450868522700151</v>
+        <v>0.3484419864403582</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -8594,19 +8594,19 @@
         <v>288230</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>256520</v>
+        <v>255346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>319271</v>
+        <v>316987</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2956907881577738</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2631605115020497</v>
+        <v>0.2619560823486548</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3275357229645006</v>
+        <v>0.3251925953397525</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>92118</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>75585</v>
+        <v>76389</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>112171</v>
+        <v>111395</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1927483120467658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1581548993769349</v>
+        <v>0.1598373528858093</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2347074150581763</v>
+        <v>0.2330836226658319</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>85</v>
@@ -8644,19 +8644,19 @@
         <v>90409</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>75216</v>
+        <v>74211</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>108567</v>
+        <v>108789</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1819648373418202</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1513855992194011</v>
+        <v>0.1493631626784872</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2185110135316143</v>
+        <v>0.2189572523840625</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>168</v>
@@ -8665,19 +8665,19 @@
         <v>182527</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>155105</v>
+        <v>158816</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>209075</v>
+        <v>210394</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1872518614699513</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1591202933154883</v>
+        <v>0.1629268441621329</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2144872173680642</v>
+        <v>0.2158398179639638</v>
       </c>
     </row>
     <row r="28">
@@ -8769,19 +8769,19 @@
         <v>100721</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>83185</v>
+        <v>83856</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118068</v>
+        <v>119621</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3012626843539258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2488108145473087</v>
+        <v>0.2508172187590854</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3531471394678861</v>
+        <v>0.3577927516551556</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>110</v>
@@ -8790,19 +8790,19 @@
         <v>121654</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>102811</v>
+        <v>104534</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>141147</v>
+        <v>141188</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3220395324701639</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2721587167308092</v>
+        <v>0.2767181792399185</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3736405447796024</v>
+        <v>0.3737487460139602</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>210</v>
@@ -8811,19 +8811,19 @@
         <v>222375</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>196887</v>
+        <v>195422</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>246789</v>
+        <v>246458</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3122847204587937</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2764906996741563</v>
+        <v>0.2744342372715523</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3465692994385919</v>
+        <v>0.3461037134270745</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>70577</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55960</v>
+        <v>56138</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86899</v>
+        <v>86230</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2111004220630445</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1673796248477146</v>
+        <v>0.1679111799769837</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2599210407924671</v>
+        <v>0.2579188040738072</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>70</v>
@@ -8861,19 +8861,19 @@
         <v>78032</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>63422</v>
+        <v>63290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94691</v>
+        <v>96445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2065629711454838</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1678877153588528</v>
+        <v>0.1675386817311622</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2506642437966258</v>
+        <v>0.2553069110732791</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>135</v>
@@ -8882,19 +8882,19 @@
         <v>148609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>127304</v>
+        <v>128181</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173142</v>
+        <v>172887</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2086933222201028</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1787749761216086</v>
+        <v>0.1800067048576968</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2431450413965852</v>
+        <v>0.2427878923799304</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>89198</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>74576</v>
+        <v>74771</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>106887</v>
+        <v>107819</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2667962633646714</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2230617174846619</v>
+        <v>0.2236438653749006</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3197051069354209</v>
+        <v>0.3224941625159425</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>95</v>
@@ -8932,19 +8932,19 @@
         <v>100618</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>83409</v>
+        <v>84556</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>118556</v>
+        <v>119343</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2663521810077562</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2207969550268797</v>
+        <v>0.2238327991692134</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3138382117248188</v>
+        <v>0.3159217737001234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>182</v>
@@ -8953,19 +8953,19 @@
         <v>189816</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>167033</v>
+        <v>166920</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>215792</v>
+        <v>214196</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2665606794231578</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2345663764508308</v>
+        <v>0.2344078217971154</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.303039481232919</v>
+        <v>0.3007976402320436</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>73834</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59317</v>
+        <v>58967</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89894</v>
+        <v>90601</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2208406302183582</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1774190356979924</v>
+        <v>0.1763733327605987</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2688767095765638</v>
+        <v>0.2709919227457878</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>79</v>
@@ -9003,19 +9003,19 @@
         <v>77458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>62969</v>
+        <v>63062</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94512</v>
+        <v>95096</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.205045315376596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1666893896120768</v>
+        <v>0.1669358134462687</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2501888462572729</v>
+        <v>0.2517340948248607</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -9024,19 +9024,19 @@
         <v>151292</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>129620</v>
+        <v>128737</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>173378</v>
+        <v>172611</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2124612778979457</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1820263650316329</v>
+        <v>0.1807871248723407</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2434767010085944</v>
+        <v>0.2424000160110971</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>73897</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62277</v>
+        <v>60420</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>87149</v>
+        <v>87219</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2875397569325639</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2423258336318989</v>
+        <v>0.2351006488949388</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3391030474949709</v>
+        <v>0.3393754205502491</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -9149,19 +9149,19 @@
         <v>121127</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101295</v>
+        <v>100299</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>142483</v>
+        <v>143482</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3026893992743984</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2531303627035157</v>
+        <v>0.2506406696822404</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3560562462103258</v>
+        <v>0.3585543299831471</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>178</v>
@@ -9170,19 +9170,19 @@
         <v>195024</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>171306</v>
+        <v>170174</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>219825</v>
+        <v>219949</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2967648355093817</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2606737627430559</v>
+        <v>0.2589507551848078</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3345034613364614</v>
+        <v>0.3346933338205667</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>44458</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33366</v>
+        <v>33767</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>56916</v>
+        <v>56370</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1729888470587065</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1298286596035947</v>
+        <v>0.1313916491473512</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2214638902916151</v>
+        <v>0.2193418929605931</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>48</v>
@@ -9220,19 +9220,19 @@
         <v>64564</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>47919</v>
+        <v>49830</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>80805</v>
+        <v>83585</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1613425833529904</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1197476344520132</v>
+        <v>0.1245222971173189</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2019265880525945</v>
+        <v>0.2088745098045265</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>97</v>
@@ -9241,19 +9241,19 @@
         <v>109022</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>90006</v>
+        <v>89069</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>130529</v>
+        <v>130280</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1658970824224621</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1369611519264295</v>
+        <v>0.1355352400865254</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1986232779414255</v>
+        <v>0.1982449303033339</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>75743</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>62381</v>
+        <v>64108</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>89558</v>
+        <v>91200</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2947213355901643</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2427283508401849</v>
+        <v>0.2494493768793921</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.348476873574625</v>
+        <v>0.3548678871002521</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>87</v>
@@ -9291,19 +9291,19 @@
         <v>118545</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99062</v>
+        <v>99679</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>140531</v>
+        <v>140306</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2962382256820029</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2475516099382708</v>
+        <v>0.2490930617519198</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3511790026160295</v>
+        <v>0.3506170723279854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>175</v>
@@ -9312,19 +9312,19 @@
         <v>194288</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>171918</v>
+        <v>169141</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>220784</v>
+        <v>222228</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2956450161612208</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.261605161041824</v>
+        <v>0.2573784508333991</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3359637511998627</v>
+        <v>0.3381601947896246</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>62900</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>49945</v>
+        <v>51742</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75045</v>
+        <v>76502</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2447500604185653</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.194341565455373</v>
+        <v>0.2013340147528295</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2920048560458268</v>
+        <v>0.2976769278970497</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>78</v>
@@ -9362,19 +9362,19 @@
         <v>95932</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>77237</v>
+        <v>76455</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>115546</v>
+        <v>115334</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2397297916906083</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1930114433875871</v>
+        <v>0.191057702590216</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2887422235268793</v>
+        <v>0.2882125039117709</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>153</v>
@@ -9383,19 +9383,19 @@
         <v>158833</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>137637</v>
+        <v>136944</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>185389</v>
+        <v>182108</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2416930659069354</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2094398886998112</v>
+        <v>0.2083861251857995</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2821039976375753</v>
+        <v>0.2771110370583679</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>937567</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>884740</v>
+        <v>887134</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>989277</v>
+        <v>997224</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2762139707368455</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2606507978364224</v>
+        <v>0.2613560315055414</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2914482369330897</v>
+        <v>0.2937894358453788</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>959</v>
@@ -9508,19 +9508,19 @@
         <v>1043779</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>991782</v>
+        <v>981569</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1099376</v>
+        <v>1101118</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2944749981084367</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2798055059501932</v>
+        <v>0.276924193190839</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3101601810801073</v>
+        <v>0.3106515602131268</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1891</v>
@@ -9529,19 +9529,19 @@
         <v>1981346</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1902609</v>
+        <v>1901584</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2055560</v>
+        <v>2061542</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2855421135112134</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2741948767828971</v>
+        <v>0.274047261455841</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2962374767819007</v>
+        <v>0.2970995906858316</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>759552</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>711833</v>
+        <v>711792</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>815292</v>
+        <v>810913</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2237695848496856</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2097112259898415</v>
+        <v>0.2096991349189299</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2401908250700208</v>
+        <v>0.2389007271368104</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>736</v>
@@ -9579,19 +9579,19 @@
         <v>785011</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>736161</v>
+        <v>735357</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>840582</v>
+        <v>836644</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2214703628507727</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2076886929083176</v>
+        <v>0.2074618870548347</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2371482416550201</v>
+        <v>0.236037328069038</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1432</v>
@@ -9600,19 +9600,19 @@
         <v>1544563</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1473772</v>
+        <v>1475289</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1623984</v>
+        <v>1622278</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2225950906309653</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2123929782547193</v>
+        <v>0.2126116644725675</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2340407846780487</v>
+        <v>0.2337950267177661</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>1022431</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>975120</v>
+        <v>971591</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1081295</v>
+        <v>1078790</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3012155162780333</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2872773590692447</v>
+        <v>0.2862378369371713</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3185573174679734</v>
+        <v>0.3178192312123853</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>977</v>
@@ -9650,19 +9650,19 @@
         <v>1042913</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>985259</v>
+        <v>992473</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1099573</v>
+        <v>1102682</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2942306795900514</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2779651726132907</v>
+        <v>0.2800003518054377</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3102159499915291</v>
+        <v>0.3110929581599029</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1928</v>
@@ -9671,19 +9671,19 @@
         <v>2065344</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1987246</v>
+        <v>1991669</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2144803</v>
+        <v>2135593</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2976475048756463</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2863923961041316</v>
+        <v>0.2870297862114905</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.309098842801307</v>
+        <v>0.3077715215064142</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>674800</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>626023</v>
+        <v>629423</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>720697</v>
+        <v>722194</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1988009281354357</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1844309147714919</v>
+        <v>0.1854325278768604</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2123225898330379</v>
+        <v>0.2127634689047148</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>666</v>
@@ -9721,19 +9721,19 @@
         <v>672839</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>629329</v>
+        <v>630430</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>717041</v>
+        <v>719517</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1898239594507392</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1775488737666004</v>
+        <v>0.1778594615523857</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2022943665249652</v>
+        <v>0.2029930389803683</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1318</v>
@@ -9742,19 +9742,19 @@
         <v>1347639</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1282800</v>
+        <v>1276831</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1417724</v>
+        <v>1412120</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.194215290982175</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1848709504122173</v>
+        <v>0.1840107531081879</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2043155549333405</v>
+        <v>0.2035080334283854</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>118840</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91569</v>
+        <v>90633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152089</v>
+        <v>150605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2914233832304962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.224546526269765</v>
+        <v>0.2222529286522005</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3729568396432553</v>
+        <v>0.3693169043650989</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -10110,19 +10110,19 @@
         <v>127469</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104300</v>
+        <v>102655</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153221</v>
+        <v>151601</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3516264605077351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2877156017385205</v>
+        <v>0.2831765633415572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.422665482728933</v>
+        <v>0.4181963967964962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -10131,19 +10131,19 @@
         <v>246309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205753</v>
+        <v>209529</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284170</v>
+        <v>286308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3197554534842674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2671059112603742</v>
+        <v>0.2720083114300321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3689062388031983</v>
+        <v>0.3716816705612319</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>96923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67277</v>
+        <v>71766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124748</v>
+        <v>130752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2376765772918107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1649793481778873</v>
+        <v>0.1759864827137451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3059089516925756</v>
+        <v>0.3206333317212928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -10181,19 +10181,19 @@
         <v>75660</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54102</v>
+        <v>53611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99456</v>
+        <v>99210</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2087103153619461</v>
+        <v>0.208710315361946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1492419553829507</v>
+        <v>0.1478878728720113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.274352228016486</v>
+        <v>0.2736727857964804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -10202,19 +10202,19 @@
         <v>172583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136732</v>
+        <v>138192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211109</v>
+        <v>213359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2240448128521491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1775043017321038</v>
+        <v>0.1793987195018014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2740593363012097</v>
+        <v>0.2769805185841758</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>124257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97299</v>
+        <v>98784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156400</v>
+        <v>153811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3047070457646286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2386001317127671</v>
+        <v>0.2422416133169496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3835281703555334</v>
+        <v>0.3771788268759565</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -10252,19 +10252,19 @@
         <v>100806</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>77611</v>
+        <v>79637</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128090</v>
+        <v>125820</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2780774577806577</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2140918390420329</v>
+        <v>0.2196812386997795</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3533409871703714</v>
+        <v>0.3470781189289178</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>111</v>
@@ -10273,19 +10273,19 @@
         <v>225064</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>186782</v>
+        <v>188693</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>260360</v>
+        <v>263331</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2921749395715107</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2424781370905857</v>
+        <v>0.2449593555039407</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3379958440243551</v>
+        <v>0.3418525217058487</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>67772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47393</v>
+        <v>45409</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98960</v>
+        <v>96503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1661929937130646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1162189257790503</v>
+        <v>0.1113523996791776</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2426715110980358</v>
+        <v>0.2366461277547642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -10323,19 +10323,19 @@
         <v>58577</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42550</v>
+        <v>42212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76715</v>
+        <v>77920</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1615857663496611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1173762586158176</v>
+        <v>0.1164437891705832</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2116212643307473</v>
+        <v>0.214945611313768</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -10344,19 +10344,19 @@
         <v>126349</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100015</v>
+        <v>100560</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>163331</v>
+        <v>160471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1640247940920729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1298385386424332</v>
+        <v>0.1305457477570213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120346682994857</v>
+        <v>0.2083211080783921</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>131048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>105896</v>
+        <v>108076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>156959</v>
+        <v>157349</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2747977445573625</v>
+        <v>0.2747977445573626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2220549853596832</v>
+        <v>0.2266261075902786</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.329129808792766</v>
+        <v>0.3299475504462634</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>122</v>
@@ -10469,19 +10469,19 @@
         <v>134053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>114543</v>
+        <v>113604</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>157484</v>
+        <v>156569</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2671798022706716</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.228294034289298</v>
+        <v>0.2264233102235169</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3138806010852219</v>
+        <v>0.3120570126689474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>207</v>
@@ -10490,19 +10490,19 @@
         <v>265101</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>230867</v>
+        <v>230940</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>296576</v>
+        <v>298121</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2708920826762233</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2359099116639479</v>
+        <v>0.2359850066934492</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.303053900021127</v>
+        <v>0.30463337637628</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>87776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67200</v>
+        <v>67188</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112586</v>
+        <v>111850</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1840582789457421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1409134639110068</v>
+        <v>0.1408887001279286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2360835115113062</v>
+        <v>0.2345395608777596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -10540,19 +10540,19 @@
         <v>121541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101113</v>
+        <v>102025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142876</v>
+        <v>144050</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2422426669648916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2015278069111748</v>
+        <v>0.2033446589643951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2847641190996881</v>
+        <v>0.2871040063146262</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -10561,19 +10561,19 @@
         <v>209317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181655</v>
+        <v>180429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242649</v>
+        <v>241133</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2138889783408828</v>
+        <v>0.2138889783408829</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1856228224156267</v>
+        <v>0.1843698623481141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2479498918818449</v>
+        <v>0.2464001046204932</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>168926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>141677</v>
+        <v>143612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195838</v>
+        <v>196277</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3542237391208201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2970855335913048</v>
+        <v>0.3011437349532885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4106555001669298</v>
+        <v>0.4115771222610692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -10611,19 +10611,19 @@
         <v>150628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130836</v>
+        <v>130591</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171867</v>
+        <v>173793</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3002160029570369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2607680246267667</v>
+        <v>0.2602796037935772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3425469486372386</v>
+        <v>0.3463847206144227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>250</v>
@@ -10632,19 +10632,19 @@
         <v>319554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>285290</v>
+        <v>287356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351778</v>
+        <v>356442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3265343778099535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2915219332596846</v>
+        <v>0.293632732015105</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3594624680844765</v>
+        <v>0.3642277003022834</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>89140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68571</v>
+        <v>69240</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>113102</v>
+        <v>111837</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1869202373760754</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1437884175040406</v>
+        <v>0.1451908659151022</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2371654207466979</v>
+        <v>0.2345123986210577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -10682,19 +10682,19 @@
         <v>95511</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79798</v>
+        <v>78201</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116761</v>
+        <v>115744</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1903615278073998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1590444455995638</v>
+        <v>0.1558621422122503</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2327160892705705</v>
+        <v>0.2306889536641621</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -10703,19 +10703,19 @@
         <v>184651</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157764</v>
+        <v>157881</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>216186</v>
+        <v>213472</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1886845611729404</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1612097582992808</v>
+        <v>0.1613299359957988</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2209084324950943</v>
+        <v>0.2181346209824691</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>165114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143178</v>
+        <v>139977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186426</v>
+        <v>188513</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2659544919170477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2306213931782328</v>
+        <v>0.2254641762081769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3002817497186129</v>
+        <v>0.3036426298368693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -10828,19 +10828,19 @@
         <v>159197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140898</v>
+        <v>140535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>178554</v>
+        <v>177893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2554544591172245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2260904966722183</v>
+        <v>0.2255077239090566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2865141766778953</v>
+        <v>0.2854540415846337</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>364</v>
@@ -10849,19 +10849,19 @@
         <v>324312</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>297372</v>
+        <v>297214</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353108</v>
+        <v>351476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2606945336161288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2390392519188989</v>
+        <v>0.2389125030733389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2838424715229283</v>
+        <v>0.2825304071820889</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>137305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118087</v>
+        <v>117658</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>160691</v>
+        <v>159769</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2211614706249979</v>
+        <v>0.221161470624998</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1902053997318975</v>
+        <v>0.1895146593201865</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.258829049426</v>
+        <v>0.2573448522761719</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>191</v>
@@ -10899,19 +10899,19 @@
         <v>149260</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>130320</v>
+        <v>130949</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168650</v>
+        <v>168412</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2395092285992936</v>
+        <v>0.2395092285992937</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2091158633631011</v>
+        <v>0.2101260739466267</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2706219457181401</v>
+        <v>0.2702412237917695</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>302</v>
@@ -10920,19 +10920,19 @@
         <v>286565</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>257600</v>
+        <v>260773</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>316371</v>
+        <v>319263</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2303527220905907</v>
+        <v>0.2303527220905906</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.207068776062228</v>
+        <v>0.2096194463139958</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2543114554102475</v>
+        <v>0.2566363143021803</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>206360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181186</v>
+        <v>182788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>231968</v>
+        <v>232399</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3323905410700828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2918409379613877</v>
+        <v>0.2944217174820724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3736371448823668</v>
+        <v>0.3743310034833547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>264</v>
@@ -10970,19 +10970,19 @@
         <v>195376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>174224</v>
+        <v>176916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214085</v>
+        <v>214711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3135084020262788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2795668158714929</v>
+        <v>0.2838865559061114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3435297017885259</v>
+        <v>0.3445332374526997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>442</v>
@@ -10991,19 +10991,19 @@
         <v>401736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>369180</v>
+        <v>369380</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>433871</v>
+        <v>430818</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3229315930938219</v>
+        <v>0.3229315930938218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2967612703454795</v>
+        <v>0.2969226331072976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3487624855157785</v>
+        <v>0.3463085846662541</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>112057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91573</v>
+        <v>92272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132744</v>
+        <v>133817</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1804934963878717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1474992335539065</v>
+        <v>0.1486246959997931</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2138139414734344</v>
+        <v>0.2155422606790257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -11041,19 +11041,19 @@
         <v>119359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103756</v>
+        <v>103743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137463</v>
+        <v>136140</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1915279102572031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1664913148015354</v>
+        <v>0.1664700503843406</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2205788207410473</v>
+        <v>0.2184551618939496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -11062,19 +11062,19 @@
         <v>231416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206102</v>
+        <v>206620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257039</v>
+        <v>257274</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1860211511994587</v>
+        <v>0.1860211511994586</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1656731710319328</v>
+        <v>0.166089247171779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2066185661717057</v>
+        <v>0.2068073835525078</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>186752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>163820</v>
+        <v>162310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>210143</v>
+        <v>209323</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2665541849583311</v>
+        <v>0.266554184958331</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2338226481889156</v>
+        <v>0.2316670667504648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2999395034044939</v>
+        <v>0.2987697793587923</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>321</v>
@@ -11187,19 +11187,19 @@
         <v>211427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192727</v>
+        <v>192238</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>231372</v>
+        <v>231608</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2869192630009981</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2615423476013597</v>
+        <v>0.2608786584915038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3139858274239055</v>
+        <v>0.3143059346025106</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>509</v>
@@ -11208,19 +11208,19 @@
         <v>398179</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>368075</v>
+        <v>368228</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>429740</v>
+        <v>428984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2769936365336839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2560511972935034</v>
+        <v>0.2561578828438308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2989489058463478</v>
+        <v>0.2984229685277504</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>181764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157558</v>
+        <v>157113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205049</v>
+        <v>206862</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2594343781306957</v>
+        <v>0.2594343781306956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2248847702644852</v>
+        <v>0.2242496983676573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2926685930498266</v>
+        <v>0.2952568654262208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -11258,19 +11258,19 @@
         <v>173734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155521</v>
+        <v>156624</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192874</v>
+        <v>194104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2357681293587934</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2110522206619596</v>
+        <v>0.2125480083339182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2617415863221391</v>
+        <v>0.263410985334901</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -11279,19 +11279,19 @@
         <v>355499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>325820</v>
+        <v>325575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387612</v>
+        <v>387316</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2473026957719586</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2266567945072217</v>
+        <v>0.2264864575915669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.269642130687937</v>
+        <v>0.2694361315873449</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>199396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>174447</v>
+        <v>177154</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>225359</v>
+        <v>227981</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2846008583194302</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2489900346938622</v>
+        <v>0.2528544539801935</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3216584784785025</v>
+        <v>0.3254005878375242</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>333</v>
@@ -11329,19 +11329,19 @@
         <v>216849</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>198288</v>
+        <v>196920</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>237983</v>
+        <v>236754</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2942769546194425</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2690885475380452</v>
+        <v>0.2672325190365315</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3229573648383969</v>
+        <v>0.3212896074624783</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>523</v>
@@ -11350,19 +11350,19 @@
         <v>416245</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>384465</v>
+        <v>384019</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>446444</v>
+        <v>447546</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2895609737950888</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2674530341720999</v>
+        <v>0.2671425715846474</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3105685982593798</v>
+        <v>0.3113357794259443</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>132704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>111202</v>
+        <v>111811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>155793</v>
+        <v>154632</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1894105785915431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1587198901063547</v>
+        <v>0.1595886837937778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2223655350991092</v>
+        <v>0.2207079929197443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>235</v>
@@ -11400,19 +11400,19 @@
         <v>134876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>118156</v>
+        <v>120373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150941</v>
+        <v>152017</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.183035653020766</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1603447911228047</v>
+        <v>0.1633535807109206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2048357892424794</v>
+        <v>0.2062958524339179</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>367</v>
@@ -11421,19 +11421,19 @@
         <v>267581</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>241204</v>
+        <v>243115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>296650</v>
+        <v>295516</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1861426938992686</v>
+        <v>0.1861426938992687</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1677934681566495</v>
+        <v>0.1691232952983043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2063648619251158</v>
+        <v>0.2055759695719918</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>173218</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151829</v>
+        <v>153776</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>195095</v>
+        <v>194312</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2842684940353055</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2491663812626639</v>
+        <v>0.2523623388010912</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.320171585875948</v>
+        <v>0.3188856442209441</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>304</v>
@@ -11546,19 +11546,19 @@
         <v>191098</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>173341</v>
+        <v>173629</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>208969</v>
+        <v>209046</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3138648125781221</v>
+        <v>0.3138648125781222</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2847002093151683</v>
+        <v>0.2851725439868448</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3432161259291027</v>
+        <v>0.3433424972723874</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>510</v>
@@ -11567,19 +11567,19 @@
         <v>364316</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>335529</v>
+        <v>336694</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>389804</v>
+        <v>391336</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2990606883350023</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2754298945268059</v>
+        <v>0.2763858779009538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3199828952510845</v>
+        <v>0.3212403881109825</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>138634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118636</v>
+        <v>118530</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160059</v>
+        <v>159223</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2275120836790013</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1946941746137414</v>
+        <v>0.1945208003746719</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2626741852528928</v>
+        <v>0.2613016799442086</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>176</v>
@@ -11617,19 +11617,19 @@
         <v>117154</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>103494</v>
+        <v>102381</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132898</v>
+        <v>133393</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1924164532824179</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1699821775853218</v>
+        <v>0.1681541579195757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.218275210833278</v>
+        <v>0.2190876210223632</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>310</v>
@@ -11638,19 +11638,19 @@
         <v>255788</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>230721</v>
+        <v>230441</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>282527</v>
+        <v>285357</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2099713418078267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1893945478019342</v>
+        <v>0.1891645432649971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2319215183705591</v>
+        <v>0.2342447390374935</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>171773</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>152100</v>
+        <v>149977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>196547</v>
+        <v>193374</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2818980933398001</v>
+        <v>0.2818980933398</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2496115442939104</v>
+        <v>0.246128032407525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3225545646934957</v>
+        <v>0.3173459750222603</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>271</v>
@@ -11688,19 +11688,19 @@
         <v>165775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>148908</v>
+        <v>148863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183259</v>
+        <v>184631</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2722735563052073</v>
+        <v>0.2722735563052074</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2445710635347037</v>
+        <v>0.2444970712451801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.300990267867932</v>
+        <v>0.3032427747089531</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>452</v>
@@ -11709,19 +11709,19 @@
         <v>337549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>309714</v>
+        <v>310971</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>364056</v>
+        <v>366719</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2770877645938664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2542383156319147</v>
+        <v>0.25527027057914</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2988469367129284</v>
+        <v>0.3010330526928243</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>125721</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>107417</v>
+        <v>108992</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>145162</v>
+        <v>144921</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2063213289458931</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1762831353139283</v>
+        <v>0.1788671626981797</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2382265280708486</v>
+        <v>0.2378304577377496</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>251</v>
@@ -11759,19 +11759,19 @@
         <v>134828</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>120229</v>
+        <v>120564</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>150942</v>
+        <v>151171</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2214451778342525</v>
+        <v>0.2214451778342526</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1974679345482435</v>
+        <v>0.1980169543652229</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2479107117976314</v>
+        <v>0.2482872592921522</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>393</v>
@@ -11780,19 +11780,19 @@
         <v>260549</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>236610</v>
+        <v>236075</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>286951</v>
+        <v>284185</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2138802052633047</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1942287100128223</v>
+        <v>0.193789569597681</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2355530883013459</v>
+        <v>0.2332823908086992</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>123792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>108568</v>
+        <v>108065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>139055</v>
+        <v>139879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3040977834824524</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2667002887024419</v>
+        <v>0.2654628315840046</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3415903698051005</v>
+        <v>0.3436162863265382</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>267</v>
@@ -11905,19 +11905,19 @@
         <v>145824</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>131511</v>
+        <v>129598</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160433</v>
+        <v>158887</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3320466589476123</v>
+        <v>0.3320466589476121</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2994555660285671</v>
+        <v>0.2951008494269163</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3653128814456088</v>
+        <v>0.3617918730984612</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>454</v>
@@ -11926,19 +11926,19 @@
         <v>269616</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>248397</v>
+        <v>247623</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>290325</v>
+        <v>290449</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3186020792680314</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2935285358089958</v>
+        <v>0.2926132787898211</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3430736773135923</v>
+        <v>0.3432201862556555</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>95791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>81705</v>
+        <v>81782</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112444</v>
+        <v>112886</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2353123182260506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2007098905894534</v>
+        <v>0.2009000618862322</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2762212345058523</v>
+        <v>0.2773074720814966</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>163</v>
@@ -11976,19 +11976,19 @@
         <v>97201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85120</v>
+        <v>84177</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>111287</v>
+        <v>111140</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2213314042010162</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.193820910163919</v>
+        <v>0.1916751839201508</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2534046371455745</v>
+        <v>0.2530698938575579</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>279</v>
@@ -11997,19 +11997,19 @@
         <v>192992</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>173895</v>
+        <v>173070</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>214427</v>
+        <v>214587</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2280568094087232</v>
+        <v>0.2280568094087234</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2054901733896747</v>
+        <v>0.2045145723237924</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2533857540647645</v>
+        <v>0.2535754796963369</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>101403</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86672</v>
+        <v>87881</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>116283</v>
+        <v>116744</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2490990368504889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2129118597024741</v>
+        <v>0.2158818731700473</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2856522307215755</v>
+        <v>0.2867843957397093</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>217</v>
@@ -12047,19 +12047,19 @@
         <v>117288</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>105047</v>
+        <v>104837</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>130980</v>
+        <v>131505</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2670688048672796</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2391964475283655</v>
+        <v>0.2387193109128309</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.298247852929951</v>
+        <v>0.2994436129416524</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>356</v>
@@ -12068,19 +12068,19 @@
         <v>218691</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>198039</v>
+        <v>198704</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>238634</v>
+        <v>238775</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2584245938246388</v>
+        <v>0.2584245938246389</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2340205267032034</v>
+        <v>0.2348067130127653</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2819917378028365</v>
+        <v>0.2821577325603595</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>86094</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>73876</v>
+        <v>73943</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101183</v>
+        <v>99159</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2114908614410081</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1814786402629749</v>
+        <v>0.1816422600461196</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2485584308530043</v>
+        <v>0.2435850750886279</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>180</v>
@@ -12118,19 +12118,19 @@
         <v>78854</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67394</v>
+        <v>68207</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>90302</v>
+        <v>90555</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.179553131984092</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1534581080544229</v>
+        <v>0.1553105857587921</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2056219080629665</v>
+        <v>0.206196643757849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>308</v>
@@ -12139,19 +12139,19 @@
         <v>164947</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>148885</v>
+        <v>148853</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>181865</v>
+        <v>185153</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1949165174986064</v>
+        <v>0.1949165174986065</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1759354109433916</v>
+        <v>0.1758983732111713</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2149084914006588</v>
+        <v>0.2187938593350977</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>91297</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>78982</v>
+        <v>78464</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104868</v>
+        <v>105387</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2943168572560073</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2546164874793602</v>
+        <v>0.252946757645481</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3380683098056192</v>
+        <v>0.3397407922840805</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>258</v>
@@ -12264,19 +12264,19 @@
         <v>149974</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>134188</v>
+        <v>134709</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>164978</v>
+        <v>164122</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3227952867502297</v>
+        <v>0.3227952867502296</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2888202444064048</v>
+        <v>0.2899400046381146</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3550895842407818</v>
+        <v>0.3532467907722119</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>398</v>
@@ -12285,19 +12285,19 @@
         <v>241270</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>222517</v>
+        <v>221846</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>262026</v>
+        <v>260278</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.3113937914303977</v>
+        <v>0.3113937914303978</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2871897349327971</v>
+        <v>0.2863238039994322</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3381824244977024</v>
+        <v>0.3359268241173533</v>
       </c>
     </row>
     <row r="35">
@@ -12314,19 +12314,19 @@
         <v>64880</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53403</v>
+        <v>54760</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78302</v>
+        <v>80131</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2091583044750691</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1721568489743221</v>
+        <v>0.1765339780261432</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2524257761021626</v>
+        <v>0.2583213240044669</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>125</v>
@@ -12335,19 +12335,19 @@
         <v>77708</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>65861</v>
+        <v>64955</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90255</v>
+        <v>90470</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1672542927409909</v>
+        <v>0.1672542927409908</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1417565689053557</v>
+        <v>0.1398050941586594</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1942595329437302</v>
+        <v>0.1947227616979009</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>203</v>
@@ -12356,19 +12356,19 @@
         <v>142588</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>125173</v>
+        <v>124973</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>161215</v>
+        <v>160441</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1840307934874665</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.161554221463812</v>
+        <v>0.1612960217501054</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.208070725844084</v>
+        <v>0.2070727996218164</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>76800</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>64737</v>
+        <v>64075</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>89715</v>
+        <v>88748</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2475852529058817</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2086953303981525</v>
+        <v>0.2065604805206812</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2892170168961419</v>
+        <v>0.2861026393025281</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>232</v>
@@ -12406,19 +12406,19 @@
         <v>124752</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111121</v>
+        <v>110948</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>139278</v>
+        <v>139311</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2685098817736643</v>
+        <v>0.2685098817736642</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2391709796833078</v>
+        <v>0.2387994085654689</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2997747597943541</v>
+        <v>0.2998451317106819</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>347</v>
@@ -12427,19 +12427,19 @@
         <v>201553</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182751</v>
+        <v>183676</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>221055</v>
+        <v>220155</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2601325919321145</v>
+        <v>0.2601325919321144</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.235865977767422</v>
+        <v>0.2370605997886665</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2853029897650776</v>
+        <v>0.2841418963802818</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>77221</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>65210</v>
+        <v>65557</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>91259</v>
+        <v>90665</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2489395853630416</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2102210003663788</v>
+        <v>0.211339147770078</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2941944724373659</v>
+        <v>0.292279928282096</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>266</v>
@@ -12477,19 +12477,19 @@
         <v>112175</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>100902</v>
+        <v>100298</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>125672</v>
+        <v>127152</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2414405387351152</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2171752921791449</v>
+        <v>0.2158757207762521</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2704895906148027</v>
+        <v>0.2736758423294561</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>391</v>
@@ -12498,19 +12498,19 @@
         <v>189396</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>172217</v>
+        <v>172859</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>209130</v>
+        <v>209677</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2444428231500212</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2222711257968227</v>
+        <v>0.2230989239182163</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2699125450980751</v>
+        <v>0.270618097497644</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>990062</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>932443</v>
+        <v>932121</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1048808</v>
+        <v>1047454</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2802516191374658</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2639416904640312</v>
+        <v>0.2638504848407472</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2968804092764749</v>
+        <v>0.2964972121118838</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1562</v>
@@ -12623,19 +12623,19 @@
         <v>1119041</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1068596</v>
+        <v>1063759</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1169172</v>
+        <v>1168560</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2994528047822302</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2859537196198741</v>
+        <v>0.2846594238327128</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3128676674252869</v>
+        <v>0.3127039797467526</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2568</v>
@@ -12644,19 +12644,19 @@
         <v>2109104</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2034786</v>
+        <v>2041763</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2180792</v>
+        <v>2188401</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2901218740353183</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2798989535889916</v>
+        <v>0.2808586987812408</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2999830792249204</v>
+        <v>0.3010298065269114</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>803073</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>747183</v>
+        <v>743133</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>860251</v>
+        <v>860876</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2273215644049354</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2115011784192415</v>
+        <v>0.2103545503351036</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2435065094267825</v>
+        <v>0.2436836177189632</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1047</v>
@@ -12694,19 +12694,19 @@
         <v>812259</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>766800</v>
+        <v>766964</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>860186</v>
+        <v>859819</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2173584741881316</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2051938176566677</v>
+        <v>0.2052377034747116</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2301837788418307</v>
+        <v>0.2300856061768652</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1723</v>
@@ -12715,19 +12715,19 @@
         <v>1615332</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1548509</v>
+        <v>1546768</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1700392</v>
+        <v>1689486</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.2222000973336055</v>
+        <v>0.2222000973336054</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2130082198686172</v>
+        <v>0.2127687168297485</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2339007619495917</v>
+        <v>0.2324005446442073</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>1048917</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>987394</v>
+        <v>988882</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1114651</v>
+        <v>1108958</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2969113569095618</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.279496239904473</v>
+        <v>0.2799176216526033</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3155182310650549</v>
+        <v>0.3139066812257345</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1517</v>
@@ -12765,19 +12765,19 @@
         <v>1071474</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1024343</v>
+        <v>1020399</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1122690</v>
+        <v>1121163</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2867239579870006</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2741118424728632</v>
+        <v>0.2730563363256146</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3004292388948072</v>
+        <v>0.3000206660203413</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2481</v>
@@ -12786,19 +12786,19 @@
         <v>2120391</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2046230</v>
+        <v>2038235</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2190017</v>
+        <v>2193647</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2916745852865966</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2814732023896371</v>
+        <v>0.2803733398712716</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.301252027217735</v>
+        <v>0.3017513977627936</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>690710</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>643715</v>
+        <v>642421</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>743613</v>
+        <v>741896</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.195515459548037</v>
+        <v>0.1955154595480371</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1822129666285048</v>
+        <v>0.1818466795285053</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2104905266280429</v>
+        <v>0.2100045435610209</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1241</v>
@@ -12836,19 +12836,19 @@
         <v>734180</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>696912</v>
+        <v>692505</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>776806</v>
+        <v>774199</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1964647630426377</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1864920672407571</v>
+        <v>0.1853125776971413</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2078713338489603</v>
+        <v>0.2071737731556326</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1971</v>
@@ -12857,19 +12857,19 @@
         <v>1424889</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1358822</v>
+        <v>1356113</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1493141</v>
+        <v>1491388</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1960034433444796</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1869153739531618</v>
+        <v>0.1865427468881932</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2053919566222803</v>
+        <v>0.2051508126271807</v>
       </c>
     </row>
     <row r="43">
